--- a/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\新しいリポジトリ\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\GA1AB-gamedev\GA1AB\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Book1!$A$1:$CV$10</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,7 +99,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -185,6 +195,231 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDD4747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808080"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -495,7 +730,7 @@
   <dimension ref="A1:CV21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1119,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1421,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1723,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1771,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1869,145 +2104,145 @@
       <c r="AZ5" s="1">
         <v>0</v>
       </c>
-      <c r="BA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="3">
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="1">
         <v>0</v>
       </c>
       <c r="CV5" s="3">
@@ -2025,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2067,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2082,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -2171,145 +2406,145 @@
       <c r="AZ6" s="1">
         <v>0</v>
       </c>
-      <c r="BA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="3">
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="1">
         <v>0</v>
       </c>
       <c r="CV6" s="3">
@@ -2327,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2366,16 +2601,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2384,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -2473,145 +2708,145 @@
       <c r="AZ7" s="1">
         <v>0</v>
       </c>
-      <c r="BA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="3">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="3">
-        <v>1</v>
-      </c>
-      <c r="CH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="3">
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="1">
         <v>0</v>
       </c>
       <c r="CV7" s="3">
@@ -2629,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2662,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2686,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -2775,145 +3010,145 @@
       <c r="AZ8" s="1">
         <v>0</v>
       </c>
-      <c r="BA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="3">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="3">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="3">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="3">
-        <v>1</v>
-      </c>
-      <c r="CH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="3">
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="1">
         <v>0</v>
       </c>
       <c r="CV8" s="3">
@@ -2958,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -2988,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3012,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -3030,192 +3265,192 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1">
         <v>4</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="CJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1">
         <v>4</v>
       </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="1">
+      <c r="CM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
         <v>4</v>
       </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
+      <c r="CP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="1">
         <v>4</v>
       </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>1</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>4</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="3">
-        <v>4</v>
-      </c>
-      <c r="BW9" s="3">
-        <v>4</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CC9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CD9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CE9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CF9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CG9" s="3">
-        <v>1</v>
-      </c>
-      <c r="CH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="3">
-        <v>4</v>
-      </c>
-      <c r="CR9" s="3">
-        <v>4</v>
-      </c>
-      <c r="CS9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="3">
+      <c r="CS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="1">
         <v>0</v>
       </c>
       <c r="CV9" s="3">
@@ -3227,14 +3462,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -3260,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -3311,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -3329,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>1</v>
@@ -3341,10 +3576,10 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="1">
         <v>1</v>
@@ -3362,22 +3597,22 @@
         <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
         <v>1</v>
       </c>
       <c r="AY10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="1">
         <v>1</v>
@@ -3395,28 +3630,28 @@
         <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1">
         <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
         <v>1</v>
@@ -3431,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="BR10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="1">
         <v>1</v>
@@ -3449,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="BX10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="1">
         <v>1</v>
@@ -3479,22 +3714,22 @@
         <v>1</v>
       </c>
       <c r="CH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10" s="1">
         <v>1</v>
@@ -4046,70 +4281,75 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AK2:AZ9 A1:AX10">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="AK2:AZ9 M5:CU9 G10:CS10 A1:AX10">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:CV9">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>7</formula>
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -99,7 +99,133 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -195,231 +321,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDD4747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -729,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CN14" sqref="CN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,7 +944,7 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1052,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1340,12 +1241,12 @@
         <v>0</v>
       </c>
       <c r="CV2" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1354,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1642,12 +1543,12 @@
         <v>0</v>
       </c>
       <c r="CV3" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1656,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1944,12 +1845,12 @@
         <v>0</v>
       </c>
       <c r="CV4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1958,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2246,12 +2147,12 @@
         <v>0</v>
       </c>
       <c r="CV5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2260,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2548,12 +2449,12 @@
         <v>0</v>
       </c>
       <c r="CV6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2562,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2850,12 +2751,12 @@
         <v>0</v>
       </c>
       <c r="CV7" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2864,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3152,12 +3053,12 @@
         <v>0</v>
       </c>
       <c r="CV8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -3454,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="CV9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
@@ -4282,73 +4183,73 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AK2:AZ9 M5:CU9 G10:CS10 A1:AX10">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:CV9">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\GA1AB-gamedev\GA1AB\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\新しいフォルダー\GA1AB\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,133 +99,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -630,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CN14" sqref="CN14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CU8" sqref="CU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3352,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV9" s="3">
         <v>6</v>
@@ -3651,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="CT10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CU10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV10" s="1">
         <v>1</v>
@@ -4183,73 +4057,73 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AK2:AZ9 M5:CU9 G10:CS10 A1:AX10">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY2:CV9">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV9">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\新しいフォルダー\GA1AB\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\BakusouShoujo[\GA1AB\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +82,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -90,9 +90,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,7 +502,7 @@
   <dimension ref="A1:CV21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CU8" sqref="CU8"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,309 +513,309 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>0</v>
       </c>
       <c r="AY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="3">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -827,12 +824,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -889,7 +886,7 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="1">
@@ -937,7 +934,7 @@
       <c r="AN2" s="1">
         <v>0</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="1">
         <v>0</v>
       </c>
       <c r="AP2" s="1">
@@ -973,154 +970,154 @@
       <c r="AZ2" s="1">
         <v>0</v>
       </c>
-      <c r="BA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="3">
-        <v>6</v>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1129,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1275,154 +1272,154 @@
       <c r="AZ3" s="1">
         <v>0</v>
       </c>
-      <c r="BA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="3">
-        <v>6</v>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1577,154 +1574,154 @@
       <c r="AZ4" s="1">
         <v>0</v>
       </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="3">
-        <v>6</v>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1781,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1940,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5" s="1">
         <v>0</v>
@@ -2015,18 +2012,18 @@
         <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2035,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2083,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2242,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6" s="1">
         <v>0</v>
@@ -2317,18 +2314,18 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2337,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2379,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -2541,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV7" s="1">
         <v>0</v>
@@ -2619,18 +2616,18 @@
         <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2639,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2657,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -2666,52 +2663,52 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -2843,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="BT8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8" s="1">
         <v>0</v>
@@ -2918,21 +2915,21 @@
         <v>0</v>
       </c>
       <c r="CS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2953,34 +2950,34 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -2992,92 +2989,92 @@
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
         <v>4</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
       <c r="AX9" s="1">
         <v>0</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -3103,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="1">
         <v>0</v>
@@ -3112,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ9" s="1">
         <v>0</v>
@@ -3124,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="1">
         <v>0</v>
@@ -3142,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV9" s="1">
         <v>0</v>
@@ -3157,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
@@ -3199,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="CL9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM9" s="1">
         <v>0</v>
@@ -3208,28 +3205,28 @@
         <v>0</v>
       </c>
       <c r="CO9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU9" s="1">
-        <v>3</v>
-      </c>
-      <c r="CV9" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
@@ -3243,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3270,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -3294,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
         <v>1</v>
@@ -3333,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="1">
         <v>1</v>
@@ -3372,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
         <v>1</v>
@@ -3414,13 +3411,13 @@
         <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1">
         <v>1</v>
@@ -3441,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="1">
         <v>1</v>
@@ -4056,7 +4053,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AK2:AZ9 M5:CU9 G10:CS10 A1:AX10">
+  <conditionalFormatting sqref="B1:CV9 A10:CS10 A1:AX10">
     <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -4067,7 +4064,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:CV9">
+  <conditionalFormatting sqref="B1:CV9">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -4078,7 +4075,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
+  <conditionalFormatting sqref="AY1:CV1 A10:CV10">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -4094,7 +4091,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="I1:I9">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -4107,17 +4104,17 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2">
+  <conditionalFormatting sqref="Y1:Y9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2">
+  <conditionalFormatting sqref="AO1:AO9">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F1:F9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
